--- a/Documents/Non-Official Documents/sources.xlsx
+++ b/Documents/Non-Official Documents/sources.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Extended Project\Classes\Level 3 Extended Project D2\elanzavalenciano17\Extended Project\ExtendedProject-update\ExtendedProject-update\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esteban\Desktop\sorted epq\ExtendedProject-master\Documents\Non-Official Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D6A334-7416-446C-9FA4-3163ADF8AF8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>Type of Resource</t>
   </si>
@@ -99,12 +100,51 @@
   </si>
   <si>
     <t>Research</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/publications/national-curriculum-in-england-mathematics-programmes-of-study/national-curriculum-in-england-mathematics-programmes-of-study</t>
+  </si>
+  <si>
+    <t>what do I need to include in my website to enable students to have the maximum help possible.</t>
+  </si>
+  <si>
+    <t>National curriculum for maths</t>
+  </si>
+  <si>
+    <t>National curriculum for english</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/publications/national-curriculum-in-england-english-programmes-of-study/national-curriculum-in-england-english-programmes-of-study#key-stage-4</t>
+  </si>
+  <si>
+    <t>National curriculum for science</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/publications/national-curriculum-in-england-science-programmes-of-study/national-curriculum-in-england-science-programmes-of-study#key-stage-4</t>
+  </si>
+  <si>
+    <t>Practical</t>
+  </si>
+  <si>
+    <t>SoloLearn</t>
+  </si>
+  <si>
+    <t>SoloLEarn</t>
+  </si>
+  <si>
+    <t>https://www.sololearn.com/</t>
+  </si>
+  <si>
+    <t>Learned how to program HTML and CSS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -439,7 +479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -550,21 +590,96 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="E5" s="1"/>
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -654,10 +769,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" location="c4372342cc"/>
-    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId1" location="c4372342cc" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{AF8A01AF-5228-4B22-BD07-7F6F31DDE095}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Documents/Non-Official Documents/sources.xlsx
+++ b/Documents/Non-Official Documents/sources.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esteban\Desktop\sorted epq\ExtendedProject-master\Documents\Non-Official Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esteban\Desktop\Extended-project-v.2-master\Documents\Non-Official Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D6A334-7416-446C-9FA4-3163ADF8AF8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA20395-C6E0-42EE-8384-9B1E7A961BD2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,7 +483,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +625,7 @@
       <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F6" t="s">
@@ -648,7 +648,7 @@
       <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F7" t="s">
@@ -671,7 +671,7 @@
       <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F8" t="s">
@@ -772,8 +772,11 @@
     <hyperlink ref="E2" r:id="rId1" location="c4372342cc" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="E5" r:id="rId3" xr:uid="{AF8A01AF-5228-4B22-BD07-7F6F31DDE095}"/>
+    <hyperlink ref="E8" r:id="rId4" xr:uid="{4B9BF842-3446-4FC0-B912-3A22A775690B}"/>
+    <hyperlink ref="E6" r:id="rId5" location="key-stage-4" xr:uid="{179B1BA3-7AE7-472D-8A92-2516667EF5BF}"/>
+    <hyperlink ref="E7" r:id="rId6" location="key-stage-4" xr:uid="{EA3C914B-5CAB-40A2-8C61-63D8AA16485F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>